--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SodexoLatest\sample\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e002091\git\sodexoMobileAutomation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2839C667-5C40-4E62-BDF2-47EC9136A22C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="launch" sheetId="1" r:id="rId1"/>
-    <sheet name="createanaccount" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="4" r:id="rId2"/>
+    <sheet name="createanaccount" sheetId="2" r:id="rId3"/>
+    <sheet name="menuData" sheetId="3" r:id="rId4"/>
+    <sheet name="paySetup" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>email</t>
   </si>
@@ -42,9 +46,6 @@
     <t>location</t>
   </si>
   <si>
-    <t>Rio</t>
-  </si>
-  <si>
     <t>bitetest@gmail.com</t>
   </si>
   <si>
@@ -54,12 +55,6 @@
     <t>nextletscreateaccountlbl</t>
   </si>
   <si>
-    <t>stephen</t>
-  </si>
-  <si>
-    <t>Jhon</t>
-  </si>
-  <si>
     <t>Gmail123</t>
   </si>
   <si>
@@ -93,13 +88,85 @@
     <t>1999</t>
   </si>
   <si>
-    <t>+1 301-987-4772</t>
+    <t>menuType</t>
+  </si>
+  <si>
+    <t>Bacon Slices</t>
+  </si>
+  <si>
+    <t>CHILDRENS</t>
+  </si>
+  <si>
+    <t>bitetest34@gmail.com</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>3019874772</t>
+  </si>
+  <si>
+    <t>HBO Cafe Grill</t>
+  </si>
+  <si>
+    <t>cafeName</t>
+  </si>
+  <si>
+    <t>MenuItem</t>
+  </si>
+  <si>
+    <t>MenuItemReview</t>
+  </si>
+  <si>
+    <t>ReviewComment</t>
+  </si>
+  <si>
+    <t>Test comment</t>
+  </si>
+  <si>
+    <t>Turkey Burger</t>
+  </si>
+  <si>
+    <t>HBO Cafe</t>
+  </si>
+  <si>
+    <t>CCNumber</t>
+  </si>
+  <si>
+    <t>ExpMonth</t>
+  </si>
+  <si>
+    <t>ExpYear</t>
+  </si>
+  <si>
+    <t>Cvv</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>5399999999999990</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>98760</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,14 +496,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -445,7 +515,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -454,11 +524,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -490,61 +597,170 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6173845-5923-47BE-8681-5A93FE98B0D1}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>